--- a/data/b copy/31-03-2023.xlsx
+++ b/data/b copy/31-03-2023.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b copy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796C2A3-C2D0-8941-9FEE-7111EE655F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio Details" r:id="rId3" sheetId="1"/>
-    <sheet name="Transaction Details" r:id="rId4" sheetId="2"/>
+    <sheet name="Portfolio Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Transaction Details" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="703">
   <si>
     <t>Name</t>
   </si>
@@ -2119,55 +2127,56 @@
   </si>
   <si>
     <t>-2.97</t>
+  </si>
+  <si>
+    <t>Umesh Raghunandanlal Anand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="D9D9D9"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2185,5722 +2194,6051 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="17.578125" customWidth="true"/>
-    <col min="3" max="3" width="21.484375" customWidth="true"/>
-    <col min="4" max="4" width="17.578125" customWidth="true"/>
-    <col min="5" max="5" width="17.5" customWidth="true"/>
-    <col min="6" max="6" width="16.40625" customWidth="true"/>
-    <col min="7" max="7" width="9.84375" customWidth="true"/>
-    <col min="8" max="8" width="7.65625" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
+      <c r="B1" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s" s="1">
+      <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>352367.66000000003</v>
       </c>
-      <c r="B10" t="n" s="2">
+      <c r="B10" s="2">
         <v>354213.87</v>
       </c>
-      <c r="C10" t="n" s="2">
+      <c r="C10" s="2">
         <v>1846.2099999999998</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="1">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="1">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="1">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="1">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s" s="1">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s" s="1">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s" s="2">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="2">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="79.5703125" customWidth="true"/>
-    <col min="3" max="3" width="10.6640625" customWidth="true"/>
-    <col min="4" max="4" width="7.3828125" customWidth="true"/>
-    <col min="5" max="5" width="6.8359375" customWidth="true"/>
-    <col min="6" max="6" width="7.8125" customWidth="true"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="79.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="4">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s" s="4">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="4">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s" s="4">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="4">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s" s="4">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s" s="4">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s" s="4">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="4">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s" s="4">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="4">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="4">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s" s="4">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s" s="4">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s" s="4">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s" s="4">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D25" t="s" s="4">
+      <c r="D25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s" s="4">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s" s="4">
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s" s="4">
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s" s="4">
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D29" t="s" s="4">
+      <c r="D29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s" s="4">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s" s="4">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s" s="4">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s" s="4">
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s" s="4">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s" s="4">
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s" s="4">
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s" s="4">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s" s="4">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s" s="4">
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s" s="4">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s" s="4">
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C41" t="s" s="4">
+      <c r="C41" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D41" t="s" s="4">
+      <c r="D41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s" s="4">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s" s="4">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s" s="4">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s" s="4">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B46" t="s" s="4">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s" s="4">
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s" s="4">
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s" s="4">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s" s="4">
+    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B51" t="s" s="4">
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B52" t="s" s="4">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s" s="4">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C53" t="s" s="4">
+      <c r="C53" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D53" t="s" s="4">
+      <c r="D53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s" s="4">
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s" s="4">
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s" s="4">
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s" s="4">
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B58" t="s" s="4">
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s" s="4">
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="D59" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B60" t="s" s="4">
+    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B61" t="s" s="4">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s" s="4">
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C62" t="s" s="4">
+      <c r="C62" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D62" t="s" s="4">
+      <c r="D62" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s" s="4">
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s" s="4">
+    <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s" s="4">
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B66" t="s" s="4">
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s" s="4">
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B68" t="s" s="4">
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B69" t="s" s="4">
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B70" t="s" s="4">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s" s="4">
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B72" t="s" s="4">
+    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s" s="4">
+    <row r="73" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B74" t="s" s="4">
+    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B75" t="s" s="4">
+    <row r="75" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s" s="4">
+    <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B77" t="s" s="4">
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s" s="4">
+    <row r="78" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s" s="4">
+    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s" s="4">
+    <row r="80" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s" s="4">
+    <row r="81" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B82" t="s" s="4">
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B83" t="s" s="4">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B84" t="s" s="4">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B85" t="s" s="4">
+    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B86" t="s" s="4">
+    <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B87" t="s" s="4">
+    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C87" t="s" s="4">
+      <c r="C87" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D87" t="s" s="4">
+      <c r="D87" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B88" t="s" s="4">
+    <row r="88" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C88" t="s" s="4">
+      <c r="C88" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D88" t="s" s="4">
+      <c r="D88" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B89" t="s" s="4">
+    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B90" t="s" s="4">
+    <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B91" t="s" s="4">
+    <row r="91" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B92" t="s" s="4">
+    <row r="92" spans="1:6" ht="43" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B93" t="s" s="4">
+    <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C93" t="s" s="4">
+      <c r="C93" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D93" t="s" s="4">
+      <c r="D93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B94" t="s" s="4">
+    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C94" t="s" s="4">
+      <c r="C94" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D94" t="s" s="4">
+      <c r="D94" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B95" t="s" s="4">
+    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B96" t="s" s="4">
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B97" t="s" s="4">
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B98" t="s" s="4">
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B99" t="s" s="4">
+    <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B100" t="s" s="4">
+    <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B101" t="s" s="4">
+    <row r="101" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C101" t="s" s="4">
+      <c r="C101" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D101" t="s" s="4">
+      <c r="D101" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B102" t="s" s="4">
+    <row r="102" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B103" t="s" s="4">
+    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B104" t="s" s="4">
+    <row r="104" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B105" t="s" s="4">
+    <row r="105" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B106" t="s" s="4">
+    <row r="106" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D106" t="s" s="4">
+      <c r="D106" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B107" t="s" s="4">
+    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B108" t="s" s="4">
+    <row r="108" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B109" t="s" s="4">
+    <row r="109" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B110" t="s" s="4">
+    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B111" t="s" s="4">
+    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B112" t="s" s="4">
+    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B113" t="s" s="4">
+    <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B114" t="s" s="4">
+    <row r="114" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D114" t="s" s="4">
+      <c r="D114" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B115" t="s" s="4">
+    <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B116" t="s" s="4">
+    <row r="116" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B117" t="s" s="4">
+    <row r="117" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B118" t="s" s="4">
+    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B119" t="s" s="4">
+    <row r="119" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B120" t="s" s="4">
+    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B121" t="s" s="4">
+    <row r="121" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B122" t="s" s="4">
+    <row r="122" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B123" t="s" s="4">
+    <row r="123" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B124" t="s" s="4">
+    <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B125" t="s" s="4">
+    <row r="125" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B126" t="s" s="4">
+    <row r="126" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B127" t="s" s="4">
+    <row r="127" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B128" t="s" s="4">
+    <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B129" t="s" s="4">
+    <row r="129" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B130" t="s" s="4">
+    <row r="130" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B131" t="s" s="4">
+    <row r="131" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B132" t="s" s="4">
+    <row r="132" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B133" t="s" s="4">
+    <row r="133" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D133" t="s" s="4">
+      <c r="D133" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B134" t="s" s="4">
+    <row r="134" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B135" t="s" s="4">
+    <row r="135" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B136" t="s" s="4">
+    <row r="136" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B137" t="s" s="4">
+    <row r="137" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B138" t="s" s="4">
+    <row r="138" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B139" t="s" s="4">
+    <row r="139" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C139" t="s" s="4">
+      <c r="C139" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D139" t="s" s="4">
+      <c r="D139" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B140" t="s" s="4">
+    <row r="140" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B141" t="s" s="4">
+    <row r="141" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B142" t="s" s="4">
+    <row r="142" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B143" t="s" s="4">
+    <row r="143" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B144" t="s" s="4">
+    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B145" t="s" s="4">
+    <row r="145" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D145" t="s" s="4">
+      <c r="D145" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B146" t="s" s="4">
+    <row r="146" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B147" t="s" s="4">
+    <row r="147" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B148" t="s" s="4">
+    <row r="148" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B149" t="s" s="4">
+    <row r="149" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B150" t="s" s="4">
+    <row r="150" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B151" t="s" s="4">
+    <row r="151" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B152" t="s" s="4">
+    <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B153" t="s" s="4">
+    <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B154" t="s" s="4">
+    <row r="154" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B155" t="s" s="4">
+    <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B156" t="s" s="4">
+    <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B157" t="s" s="4">
+    <row r="157" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B158" t="s" s="4">
+    <row r="158" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B159" t="s" s="4">
+    <row r="159" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C159" t="s" s="4">
+      <c r="C159" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D159" t="s" s="4">
+      <c r="D159" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B160" t="s" s="4">
+    <row r="160" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B161" t="s" s="4">
+    <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B162" t="s" s="4">
+    <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B163" t="s" s="4">
+    <row r="163" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B164" t="s" s="4">
+    <row r="164" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B165" t="s" s="4">
+    <row r="165" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B166" t="s" s="4">
+    <row r="166" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B167" t="s" s="4">
+    <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B168" t="s" s="4">
+    <row r="168" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B169" t="s" s="4">
+    <row r="169" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C169" t="s" s="4">
+      <c r="C169" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D169" t="s" s="4">
+      <c r="D169" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E169" t="s" s="4">
+      <c r="E169" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F169" t="s" s="4">
+      <c r="F169" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B170" t="s" s="4">
+    <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B171" t="s" s="4">
+    <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C171" t="s" s="4">
+      <c r="C171" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D171" t="s" s="4">
+      <c r="D171" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B172" t="s" s="4">
+    <row r="172" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B173" t="s" s="4">
+    <row r="173" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B174" t="s" s="4">
+    <row r="174" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B175" t="s" s="4">
+    <row r="175" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B176" t="s" s="4">
+    <row r="176" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B177" t="s" s="4">
+    <row r="177" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B178" t="s" s="4">
+    <row r="178" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B179" t="s" s="4">
+    <row r="179" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B180" t="s" s="4">
+    <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B181" t="s" s="4">
+    <row r="181" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B182" t="s" s="4">
+    <row r="182" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B183" t="s" s="4">
+    <row r="183" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B184" t="s" s="4">
+    <row r="184" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B185" t="s" s="4">
+    <row r="185" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B186" t="s" s="4">
+    <row r="186" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B187" t="s" s="4">
+    <row r="187" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B188" t="s" s="4">
+    <row r="188" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B189" t="s" s="4">
+    <row r="189" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B190" t="s" s="4">
+    <row r="190" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B191" t="s" s="4">
+    <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C191" t="s" s="4">
+      <c r="C191" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D191" t="s" s="4">
+      <c r="D191" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B192" t="s" s="4">
+    <row r="192" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B193" t="s" s="4">
+    <row r="193" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B194" t="s" s="4">
+    <row r="194" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B195" t="s" s="4">
+    <row r="195" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C195" t="s" s="4">
+      <c r="C195" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D195" t="s" s="4">
+      <c r="D195" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B196" t="s" s="4">
+    <row r="196" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C196" t="s" s="4">
+      <c r="C196" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D196" t="s" s="4">
+      <c r="D196" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B197" t="s" s="4">
+    <row r="197" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B198" t="s" s="4">
+    <row r="198" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B199" t="s" s="4">
+    <row r="199" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B200" t="s" s="4">
+    <row r="200" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C200" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D200" t="s" s="4">
+      <c r="D200" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B201" t="s" s="4">
+    <row r="201" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B202" t="s" s="4">
+    <row r="202" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C202" t="s" s="4">
+      <c r="C202" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D202" t="s" s="4">
+      <c r="D202" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B203" t="s" s="4">
+    <row r="203" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C203" t="s" s="4">
+      <c r="C203" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D203" t="s" s="4">
+      <c r="D203" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B204" t="s" s="4">
+    <row r="204" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C204" t="s" s="4">
+      <c r="C204" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D204" t="s" s="4">
+      <c r="D204" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B205" t="s" s="4">
+    <row r="205" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B206" t="s" s="4">
+    <row r="206" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B207" t="s" s="4">
+    <row r="207" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B208" t="s" s="4">
+    <row r="208" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B209" t="s" s="4">
+    <row r="209" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B210" t="s" s="4">
+    <row r="210" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C210" t="s" s="4">
+      <c r="C210" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D210" t="s" s="4">
+      <c r="D210" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B211" t="s" s="4">
+    <row r="211" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B212" t="s" s="4">
+    <row r="212" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B213" t="s" s="4">
+    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C213" t="s" s="4">
+      <c r="C213" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D213" t="s" s="4">
+      <c r="D213" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B214" t="s" s="4">
+    <row r="214" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B215" t="s" s="4">
+    <row r="215" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B216" t="s" s="4">
+    <row r="216" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C216" t="s" s="4">
+      <c r="C216" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D216" t="s" s="4">
+      <c r="D216" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B217" t="s" s="4">
+    <row r="217" spans="1:6" ht="43" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B218" t="s" s="4">
+    <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B219" t="s" s="4">
+    <row r="219" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C219" t="s" s="4">
+      <c r="C219" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D219" t="s" s="4">
+      <c r="D219" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B220" t="s" s="4">
+    <row r="220" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B221" t="s" s="4">
+    <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B222" t="s" s="4">
+    <row r="222" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C222" t="s" s="4">
+      <c r="C222" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D222" t="s" s="4">
+      <c r="D222" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B223" t="s" s="4">
+    <row r="223" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B224" t="s" s="4">
+    <row r="224" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B225" t="s" s="4">
+    <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C225" t="s" s="4">
+      <c r="C225" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D225" t="s" s="4">
+      <c r="D225" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B226" t="s" s="4">
+    <row r="226" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C226" t="s" s="4">
+      <c r="C226" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D226" t="s" s="4">
+      <c r="D226" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B227" t="s" s="4">
+    <row r="227" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B228" t="s" s="4">
+    <row r="228" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B229" t="s" s="4">
+    <row r="229" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B230" t="s" s="4">
+    <row r="230" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B231" t="s" s="4">
+    <row r="231" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C231" t="s" s="4">
+      <c r="C231" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D231" t="s" s="4">
+      <c r="D231" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B232" t="s" s="4">
+    <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C232" t="s" s="4">
+      <c r="C232" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D232" t="s" s="4">
+      <c r="D232" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B233" t="s" s="4">
+    <row r="233" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B234" t="s" s="4">
+    <row r="234" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B235" t="s" s="4">
+    <row r="235" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B236" t="s" s="4">
+    <row r="236" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B237" t="s" s="4">
+    <row r="237" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B238" t="s" s="4">
+    <row r="238" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C238" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D238" t="s" s="4">
+      <c r="D238" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B239" t="s" s="4">
+    <row r="239" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B240" t="s" s="4">
+    <row r="240" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B241" t="s" s="4">
+    <row r="241" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B242" t="s" s="4">
+    <row r="242" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B243" t="s" s="4">
+    <row r="243" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C243" t="s" s="4">
+      <c r="C243" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D243" t="s" s="4">
+      <c r="D243" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B244" t="s" s="4">
+    <row r="244" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B245" t="s" s="4">
+    <row r="245" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B246" t="s" s="4">
+    <row r="246" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B247" t="s" s="4">
+    <row r="247" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B248" t="s" s="4">
+    <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B249" t="s" s="4">
+    <row r="249" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C249" t="s" s="4">
+      <c r="C249" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D249" t="s" s="4">
+      <c r="D249" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" s="4" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B250" t="s" s="4">
+    <row r="250" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B251" t="s" s="4">
+    <row r="251" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B252" t="s" s="4">
+    <row r="252" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C252" t="s" s="4">
+      <c r="C252" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D252" t="s" s="4">
+      <c r="D252" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B253" t="s" s="4">
+    <row r="253" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C253" t="s" s="4">
+      <c r="C253" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D253" t="s" s="4">
+      <c r="D253" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B254" t="s" s="4">
+    <row r="254" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B255" t="s" s="4">
+    <row r="255" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C255" t="s" s="4">
+      <c r="C255" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D255" t="s" s="4">
+      <c r="D255" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B256" t="s" s="4">
+    <row r="256" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C256" t="s" s="4">
+      <c r="C256" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D256" t="s" s="4">
+      <c r="D256" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" s="4" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B257" t="s" s="4">
+    <row r="257" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B258" t="s" s="4">
+    <row r="258" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B259" t="s" s="4">
+    <row r="259" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B260" t="s" s="4">
+    <row r="260" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B261" t="s" s="4">
+    <row r="261" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="C261" t="s" s="4">
+      <c r="C261" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D261" t="s" s="4">
+      <c r="D261" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B262" t="s" s="4">
+    <row r="262" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C262" t="s" s="4">
+      <c r="C262" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D262" t="s" s="4">
+      <c r="D262" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B263" t="s" s="4">
+    <row r="263" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C263" t="s" s="4">
+      <c r="C263" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D263" t="s" s="4">
+      <c r="D263" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B264" t="s" s="4">
+    <row r="264" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B265" t="s" s="4">
+    <row r="265" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B266" t="s" s="4">
+    <row r="266" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B267" t="s" s="4">
+    <row r="267" spans="1:6" ht="43" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C267" t="s" s="4">
+      <c r="C267" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D267" t="s" s="4">
+      <c r="D267" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" s="4" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B268" t="s" s="4">
+    <row r="268" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C268" t="s" s="4">
+      <c r="C268" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D268" t="s" s="4">
+      <c r="D268" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" s="4" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B269" t="s" s="4">
+    <row r="269" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C269" t="s" s="4">
+      <c r="C269" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D269" t="s" s="4">
+      <c r="D269" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="s" s="4">
+    <row r="270" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" s="4" t="s">
         <v>701</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>